--- a/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_progressive_hint.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_progressive_hint.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_32a64212fc]) to various user accounts, including "test5", "rundeck", "jimmy", and the root account. These repeated attempts, particularly against the root account, strongly suggest an intrusion attempt. The log entries indicate authentication failures and disconnections, indicating that the attacker's attempts were unsuccessful but persistent. This aligns with the definition of CAT12: Intrusion Attempt – unconfirmed attacks.</t>
+          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_32a64212fc]) to various user accounts, including "test5", "rundeck", "jimmy", and the root account. These attempts are characterized as "authentication failures" and "failed password for [username]".  The log lines indicate that these were likely brute force attempts, as they involve repeated unsuccessful logins with different usernames and passwords. This aligns with the definition of an Intrusion Attempt (CAT12) - unconfirmed attacks such as network scans, brute force, and blocked exploits.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) using various usernames. These unsuccessful attempts strongly suggest an intrusion attempt, likely a brute-force attack against the SSH service.  The log lines indicate "Invalid user" messages and "authentication failure," confirming that these were not legitimate logins.</t>
+          <t>The incident description details multiple failed SSH login attempts from a single IP address ([IP_ADDRESS_b29a075d57]). These attempts used invalid usernames and resulted in authentication failures. This strongly suggests an intrusion attempt, likely a brute-force attack against the SSH server.  The log lines clearly indicate unsuccessful logins with various user names and the "Bye Bye [preauth]" message signifies disconnections before authentication is complete.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -688,7 +688,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The incident description details an email received by CERT.br reporting potential abuse from a specific IP address ([IP_ADDRESS_984299dc8f]).  The original message includes log lines indicating attempts to send emails that were ultimately rejected due to the recipient's domain being blacklisted (mega.kg). This suggests an intrusion attempt as the sender likely attempted to use the compromised IP address for malicious purposes, such as sending spam or phishing emails.</t>
+          <t>The incident description details an email received by CERT.br reporting potential abuse from a specific IP address.  The original message includes log lines indicating blocked attempts to send emails, suggesting an intrusion attempt rather than a confirmed successful attack. This aligns with the definition of CAT12: Intrusion Attempt – unconfirmed attacks.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -767,7 +767,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to various SSH accounts (cjl, kafka, cyr, sat, extrim, user1). These attempts are characterized as "invalid user" and "authentication failure," indicating an intrusion attempt where the attacker is trying different usernames and passwords. The log entries also mention "Failed password for invalid user..." and "Received disconnect from... [preauth]," further supporting the conclusion of unsuccessful brute-force attacks.</t>
+          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to various user accounts on a system.  The log entries clearly show "Invalid user" messages, "authentication failure," and "Failed password" for different usernames. This strongly indicates an intrusion attempt, likely through brute-force methods, where the attacker is trying to guess valid credentials.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The incident description clearly states that one or more computers in the victim's network have been potentially infected with the malware SystemBC. This malware is described as a backdoor used for lateral movement within a network, aligning directly with the definition of Malware under NIST Category CAT2.</t>
+          <t>The incident description clearly states that one or more computers in the victim's network have been potentially infected with the malware SystemBC. This malware is described as a backdoor, which is a type of malicious code used to gain unauthorized access to a system.  The email also recommends actions like blocking accounts and reinstalling operating systems, further indicating a malware infection.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident description clearly states that one or more computers in the victim's network have been potentially infected with the malware SystemBC. This malware is described as a backdoor, used to gain unauthorized access and control over compromised systems.  The email details observed interactions of this malware, further confirming a malware infection.</t>
+          <t>The incident description clearly states that one or more computers in the victim's network have been potentially infected with the malware SystemBC. This directly falls under the category of Malware as defined by NIST.  The email details the malware's capabilities (backdoor, lateral movement) and its association with ransomware attacks, further solidifying the classification.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident description details an email received by CERT.br reporting potential abuse from a specific IP address ([IP_ADDRESS_984299dc8f]).  The original message includes log lines indicating blocked attempts to send emails, suggesting an intrusion attempt (network scans and/or brute force). While the exact nature of the attack is not confirmed, the email clearly describes actions taken by an unknown entity attempting to gain unauthorized access.</t>
+          <t>The incident description details a potential intrusion attempt flagged by Fail2Ban.  The system logs show blocked connections from an IP address ([IP_ADDRESS_984299dc8f]) attempting to send emails through the server. The email addresses involved are likely not legitimate, and the sender's domain ("mega.kg") is suspicious. This suggests a possible brute-force or spam attack attempt that was successfully blocked by the security measures in place.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The incident description details a potential abuse report originating from an IP address.  The email contains log lines indicating blocked attempts to send emails, suggesting a possible intrusion attempt (network scans or brute force). However, there's no confirmation of successful exploitation or data compromise. This aligns with the definition of CAT12 - Intrusion Attempt – unconfirmed attacks.</t>
+          <t>The incident description details a report of potential abuse originating from an IP address.  The original message includes log lines indicating blocked attempts to send email, suggesting a possible intrusion attempt (network scans or brute force). While the exact nature of the attack is not confirmed, the forwarded email and log entries point towards an unconfirmed security incident.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The incident description clearly states that a machine within the network was compromised and potentially used for malicious activities.  The CERT.br team identified this through logs showing multiple SSH connection attempts from the same IP address, which is characteristic of a brute force attack. This aligns with the definition of Account Compromise (CAT1) as unauthorized access to user or administrator accounts was likely achieved through the successful brute force attempt.</t>
+          <t>The email clearly states that the target machine was likely compromised and used for malicious activities, possibly through a brute-force attack on SSH. This aligns with the definition of Account Compromise (CAT1) as it involves unauthorized access to user or administrator accounts.  The logs provided also suggest an attempt to establish multiple connections from the compromised machine to various ports.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS attack. This involves overwhelming a system with traffic to make it unavailable, which is the definition of a Denial of Service Attack (DoS or DDoS).</t>
+          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS attack. This involves overwhelming a target system with traffic, making it unavailable to legitimate users.  The email details the attack size (Nx10Gbps), its impact (significant packet loss and requiring emergency mitigation), and the nature of the attack (short bursts of outbound traffic). All these elements point directly to a Denial of Service Attack.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS attack. This aligns with the definition of a Denial of Service Attack (CAT3) as it involved making systems unavailable by overwhelming them with traffic.  The email details the attack size, its impact on clients, and the mitigation steps taken.</t>
+          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS attack. This involves overwhelming a target system with traffic, making it unavailable to legitimate users. This aligns perfectly with the definition of a Denial of Service Attack (DoS/DDoS) as defined in CAT3.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The incident description clearly describes a Denial of Service (DoS) attack.  The email states that an IP address under the recipient's control was used in a coordinated DDoS botnet to attack one of their customers, causing significant packet loss and requiring emergency mitigation measures. This aligns perfectly with the definition of a DoS attack as outlined in the NIST categories.</t>
+          <t>The incident description clearly describes a Denial of Service (DoS) attack.  The email states that an IP address under the recipient's control was used to attack one of their customers as part of a coordinated DDoS botnet, causing significant packet loss and requiring emergency mitigation measures. This directly aligns with the definition of a DoS attack in the provided NIST categories.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The incident description details a vulnerability in Zimbra Collaboration Suite (CVE-2022-37042) that allows attackers to upload files, execute arbitrary code, and gain unauthorized access. This clearly falls under Vulnerability Exploitation (CAT5) as the core issue is the exploitation of a known technical flaw to potentially compromise systems.</t>
+          <t>The incident describes a vulnerability in Zimbra Collaboration Suite (CVE-2022-37042) that allows attackers to upload files, execute arbitrary code, and gain unauthorized access. This directly falls under Vulnerability Exploitation (CAT5) as the core issue is the exploitation of a known technical flaw in software.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident description details a vulnerability where network devices with BGP (Border Gateway Protocol) services are exposed to the internet. This exposure increases the risk of Denial of Service (DoS) attacks targeting the BGP service, potentially disrupting network connectivity and availability.  The CERT.br notification explicitly warns about this risk and recommends mitigation strategies like implementing Access Control Lists (ACLs) to restrict access to the BGP service.</t>
+          <t>The incident describes exposed BGP servers on the network.  This exposure could lead to a Denial of Service (DoS) attack targeting the BGP service, disrupting network connectivity and availability. This aligns with the definition of a Denial of Service Attack in the NIST categories.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The incident description details multiple blocked connections originating from IP address `[IP_ADDRESS_26a432a33e]` to various servers. These connections are flagged as potential "portscans/malware/intrusion attempts" and involve unsolicited connections to well-known ports (like SSH, FTP).</t>
+          <t>The incident description details blocked network activity originating from IP address [IP_ADDRESS_26a432a33e].  The logs indicate "portscan/malware/intrusion attempts" and specifically mention blocked connections on ports 53500 and 53469. These actions strongly suggest an intrusion attempt, as the IP is actively scanning for vulnerabilities and attempting to connect to known services. While the exact nature of the attack remains unconfirmed, the evidence points towards a malicious actor probing the network for weaknesses.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident describes a notification about servers with the SSDP/uPnP service enabled, which can be exploited for DDoS attacks.  The email explicitly states that these IPs could be involved in attacks consuming network resources and impacting third parties. This aligns directly with the definition of a Denial of Service Attack (CAT3) as it involves making systems unavailable through malicious exploitation of a service.</t>
+          <t>The incident describes a notification about servers with the SSDP/UPnP service enabled, which can be exploited for DDoS attacks.  The email explicitly states that these IPs could be involved in attacks that consume network resources and impact third parties, making this a Denial of Service (DoS) scenario.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The incident describes a notification about servers configured with NTP (Network Time Protocol) that are vulnerable to being exploited in DDoS (Distributed Denial of Service) attacks.  The email details how these misconfigured servers can be abused to amplify traffic and disrupt services, making them unavailable. This directly aligns with the definition of a Denial of Service Attack in the NIST categories.</t>
+          <t>The incident describes a notification about servers configured as NTP (Network Time Protocol) that are vulnerable to being exploited in DDoS (Distributed Denial of Service) attacks.  The email details how these misconfigured servers can be abused to amplify requests, overwhelming target systems and making them unavailable. This directly aligns with the definition of a Denial of Service Attack under CAT3.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a phishing scam.  An email was sent impersonating a legitimate organization ("Conta [ORGANIZATION_42be1f53d6] Vivo") to trick recipients into revealing sensitive information. This aligns perfectly with the definition of social engineering, specifically phishing, as outlined in CAT7.</t>
+          <t>The incident description clearly indicates a phishing scam.  An email was sent claiming to be from "Conta [ORGANIZATION_42be1f53d6] Vivo" with a subject line about a digital account, attempting to deceive recipients into providing sensitive information. This aligns perfectly with the definition of social engineering in CAT7, which involves deception for gaining access or data.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a case of social engineering.  Netcraft, a security company, is contacting the organization ([ORGANIZATION_56ea831de8]) about an email server on their network that's sending fraudulent emails. They previously contacted them about this issue, suggesting a pattern of attempts to deceive and gain access. The email itself uses deceptive tactics to appear legitimate and pressure the recipient into taking action.</t>
+          <t>This incident involves a phishing email campaign where an attacker impersonates a legitimate organization (Netcraft) to deceive users into believing their server is involved in fraudulent activities. The email aims to trick recipients into taking action, potentially revealing sensitive information or granting access to systems.  This classic example of social engineering aligns with the definition of CAT7: Social Engineering – deception to gain access or data.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The incident description clearly states that the website content was "altered" and "defigured". This directly points to unauthorized modification of data on a system, which is the definition of Category CAT9.</t>
+          <t>The incident description clearly states that the website's content was altered, which constitutes an "unauthorized modification" of data. This aligns perfectly with the definition of Category CAT9: Unauthorized Modification – improper changes to systems or data.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The incident description clearly states that a website's content has been "altered" or "defaced". This directly falls under the definition of Unauthorized Modification (CAT9), where improper changes are made to systems or data.  The email from CERT.br explicitly mentions this as the reason for their communication.</t>
+          <t>The incident description clearly states that a website's content has been "altered" or "desfiguracao de website". This indicates unauthorized modification of data on the website, which aligns with the definition of CAT9: Unauthorized Modification.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident description clearly states that a website was defaced, meaning its content was altered without authorization. This directly falls under the definition of "Unauthorized Modification" as outlined in CAT9.  The email mentions the altered content is still accessible, further supporting this classification.</t>
+          <t>The incident description clearly states that a website was defaced, meaning its content was altered without authorization. This directly falls under the definition of "Unauthorized Modification" as outlined in CAT9.  The email mentions the altered content is still accessible, further supporting the classification.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident description clearly states that the website content was altered ("Desfiguracao de website" translates to "Website Defacement"). This directly falls under Unauthorized Modification (CAT9) as it involves improper changes made to a system (the website) without authorization.</t>
+          <t>The incident description clearly states that the website content was "altered" and  provides a screenshot of the modified content. This indicates an unauthorized modification of the website, which falls under the definition of CAT9: Unauthorized Modification.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident description clearly states that a website's content was altered, specifically mentioning "Desfiguracao de website" (website defacing).  The email also includes a screenshot of the altered content with a message from the attackers claiming responsibility. This directly aligns with the definition of CAT9: Unauthorized Modification – improper changes to systems or data.</t>
+          <t>The incident description clearly states that a website's content was altered, with a message from the attackers ("Hacked by theMx0nday") and defacing graphics. This directly falls under Unauthorized Modification (CAT9) as the attackers made improper changes to the website's data without authorization.</t>
         </is>
       </c>
       <c r="E25" t="n">
